--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="208">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,6 +816,14 @@
   </si>
   <si>
     <t>usercenter/account/{accontId}/assets/{id}</t>
+  </si>
+  <si>
+    <t>添加 个人 及 好友 曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 三大股指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3050,9 +3058,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A8"/>
+  <dimension ref="A3:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -3086,6 +3096,16 @@
         <v>187</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据记录" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="207">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,14 +525,8 @@
     <t>按代码查询</t>
   </si>
   <si>
-    <t>按所属板块查询</t>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按描述关键字查询</t>
   </si>
   <si>
     <t>最近复牌股</t>
@@ -760,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台管理首页添加 最近复牌 和 每日复盘 链接。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/fupan/api/stock/{daima}</t>
   </si>
   <si>
@@ -822,7 +812,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加 三大股指</t>
+    <t>添加 三大股指 指数维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按所属板块查询[多个板块"与"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按描述关键字查询[多个关键字"与"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,6 +893,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -963,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1022,6 +1029,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,7 +1401,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1408,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>6</v>
@@ -1438,12 +1446,12 @@
         <v>1</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -2237,9 +2245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2258,33 +2266,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="28" customFormat="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="28" customFormat="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="20" t="s">
         <v>120</v>
       </c>
@@ -2300,14 +2308,14 @@
       <c r="H2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" s="29" customFormat="1">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -2322,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>124</v>
@@ -2333,11 +2341,11 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>125</v>
@@ -2348,10 +2356,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>124</v>
@@ -2359,11 +2367,11 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>125</v>
@@ -2374,25 +2382,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="31" customFormat="1">
@@ -2400,23 +2408,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1">
@@ -2424,22 +2432,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="31" t="s">
         <v>127</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="31" customFormat="1">
@@ -2447,22 +2455,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="31" customFormat="1">
@@ -2470,22 +2478,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="31" customFormat="1">
@@ -2493,29 +2501,29 @@
         <v>8</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I11" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>168</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="33" customFormat="1">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I12" s="26"/>
     </row>
@@ -2524,23 +2532,23 @@
         <v>1</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="31" customFormat="1">
@@ -2551,19 +2559,19 @@
         <v>122</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="31" customFormat="1">
@@ -2571,25 +2579,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>124</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="31" t="s">
         <v>134</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="31" customFormat="1">
@@ -2597,23 +2605,23 @@
         <v>4</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>124</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>123</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="31" customFormat="1">
@@ -2624,19 +2632,19 @@
         <v>122</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="31" customFormat="1">
@@ -2644,23 +2652,23 @@
         <v>6</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="31" customFormat="1">
@@ -2668,25 +2676,25 @@
         <v>6</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="31" customFormat="1">
@@ -2694,23 +2702,23 @@
         <v>7</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>123</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="31" customFormat="1">
@@ -2721,19 +2729,19 @@
         <v>122</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="31" customFormat="1">
@@ -2741,23 +2749,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="31" customFormat="1">
@@ -2765,25 +2773,25 @@
         <v>9</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="31" customFormat="1">
@@ -2791,23 +2799,23 @@
         <v>10</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>123</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="31" customFormat="1">
@@ -2818,19 +2826,19 @@
         <v>122</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="31" customFormat="1">
@@ -2838,23 +2846,23 @@
         <v>12</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="31" t="s">
         <v>159</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="31" customFormat="1">
@@ -2862,25 +2870,25 @@
         <v>12</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="31" customFormat="1">
@@ -2888,30 +2896,30 @@
         <v>13</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>123</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="33" customFormat="1">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I29" s="26"/>
     </row>
@@ -2923,22 +2931,22 @@
         <v>122</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D30" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>186</v>
-      </c>
       <c r="G30" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="31" customFormat="1">
@@ -2946,25 +2954,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -2972,23 +2980,23 @@
         <v>3</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -2996,25 +3004,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -3022,23 +3030,23 @@
         <v>5</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3058,52 +3066,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A10"/>
+  <dimension ref="A3:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>187</v>
+      <c r="A8" s="36" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据记录" sheetId="1" r:id="rId1"/>
@@ -2245,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
@@ -3068,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="36" t="s">
         <v>162</v>
       </c>
     </row>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -828,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +904,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -970,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1033,6 +1041,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3069,7 +3078,7 @@
   <dimension ref="A3:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3100,7 +3109,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>203</v>
       </c>
     </row>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="209">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,6 +821,14 @@
   </si>
   <si>
     <t>按描述关键字查询[多个关键字"与"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产表中添加当日收益率、月度收益率、年度收益率等，并考虑如何支持好友间的收益率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘与查询 》 资产记录 》 资产曲线 》 多用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,10 +1046,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2275,33 +2283,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="28" customFormat="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="28" customFormat="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="20" t="s">
         <v>120</v>
       </c>
@@ -2317,8 +2325,8 @@
       <c r="H2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" s="29" customFormat="1">
       <c r="A3" s="27"/>
@@ -3075,14 +3083,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="3" spans="1:1">
       <c r="A3" s="34" t="s">
         <v>173</v>
@@ -3109,13 +3122,18 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="36" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据记录" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="212">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,10 +700,6 @@
   </si>
   <si>
     <t>高送转、除权填权也做成类似停复牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daybefore/dayafter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -757,78 +753,95 @@
     <t>/fupan/api/stock/{daima}</t>
   </si>
   <si>
+    <t>/fupan/api/stock/bankuai</t>
+  </si>
+  <si>
+    <t>/fupan/api/stock/keyword</t>
+  </si>
+  <si>
+    <t>/fupan/api/stock/fupai/{day}</t>
+  </si>
+  <si>
+    <t>/fupan/api/stock/tixing/{daybefore}/{dayafter}</t>
+  </si>
+  <si>
+    <t>/fupan/api/stock/fupan/{date}</t>
+  </si>
+  <si>
+    <t>/fupan/api/stock/fupan/datelist/{top}</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/base</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/base/{daima}</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/ext</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/ext/{id}</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/tingfupai</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/tingfupai/{id}</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/tixing</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/tixing/{id}</t>
+  </si>
+  <si>
+    <t>usercenter/account/{accontId}/assets</t>
+  </si>
+  <si>
+    <t>usercenter/account/{accontId}/assets/{id}</t>
+  </si>
+  <si>
+    <t>添加 个人 及 好友 曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 三大股指 指数维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按所属板块查询[多个板块"与"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按描述关键字查询[多个关键字"与"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产表中添加当日收益率、月度收益率、年度收益率等，并考虑如何支持好友间的收益率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘与查询 》 资产记录 》 资产曲线 》 多用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daybefore/dayafter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongwenming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/fupan/api/stock/base/{daima}</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/bankuai</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/keyword</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/fupai/{day}</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/tixing/{daybefore}/{dayafter}</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/fupan/{date}</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/fupan/datelist/{top}</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/base</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/base/{daima}</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/ext</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/ext/{id}</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/tingfupai</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/tingfupai/{id}</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/tixing</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/tixing/{id}</t>
-  </si>
-  <si>
-    <t>usercenter/account/{accontId}/assets</t>
-  </si>
-  <si>
-    <t>usercenter/account/{accontId}/assets/{id}</t>
-  </si>
-  <si>
-    <t>添加 个人 及 好友 曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加 三大股指 指数维护功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按所属板块查询[多个板块"与"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按描述关键字查询[多个关键字"与"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产表中添加当日收益率、月度收益率、年度收益率等，并考虑如何支持好友间的收益率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复盘与查询 》 资产记录 》 资产曲线 》 多用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按名称查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fupan/api/stock/base/zhongwenming/{zhongwenming}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2260,11 +2273,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2350,7 +2363,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>124</v>
@@ -2376,7 +2389,7 @@
         <v>126</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>124</v>
@@ -2401,47 +2414,49 @@
       <c r="B6" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="31" t="s">
-        <v>154</v>
-      </c>
+      <c r="C6" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
         <v>157</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="31" customFormat="1">
+        <v>132</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="30" customFormat="1">
       <c r="A7" s="21">
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>188</v>
-      </c>
+      <c r="C7" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="30"/>
+        <v>154</v>
+      </c>
+      <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
         <v>157</v>
       </c>
+      <c r="H7" s="23"/>
       <c r="I7" s="22" t="s">
         <v>130</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1">
@@ -2452,11 +2467,12 @@
         <v>126</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>128</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="30"/>
       <c r="G8" s="22" t="s">
         <v>157</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>130</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="31" customFormat="1">
@@ -2475,19 +2491,19 @@
         <v>126</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="31" customFormat="1">
@@ -2498,19 +2514,19 @@
         <v>126</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="31" customFormat="1">
@@ -2521,88 +2537,85 @@
         <v>126</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I11" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="31" customFormat="1">
+      <c r="A12" s="21">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J12" s="31" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="33" customFormat="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="32" t="s">
+    <row r="13" spans="1:10" s="33" customFormat="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" s="30" customFormat="1">
-      <c r="A13" s="21">
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" s="30" customFormat="1">
+      <c r="A14" s="21">
         <v>1</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="31" customFormat="1">
-      <c r="A14" s="21">
-        <v>2</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>122</v>
-      </c>
       <c r="C14" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>132</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="22" t="s">
         <v>157</v>
       </c>
+      <c r="H14" s="23"/>
       <c r="I14" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>133</v>
+        <v>150</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="31" customFormat="1">
       <c r="A15" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>132</v>
@@ -2614,70 +2627,72 @@
         <v>132</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="31" customFormat="1">
       <c r="A16" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="G16" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="31" customFormat="1">
       <c r="A17" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>147</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="22"/>
       <c r="G17" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="31" customFormat="1">
       <c r="A18" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="22"/>
+        <v>193</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="G18" s="22" t="s">
         <v>157</v>
       </c>
@@ -2685,7 +2700,7 @@
         <v>147</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="31" customFormat="1">
@@ -2693,17 +2708,15 @@
         <v>6</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>147</v>
-      </c>
+      <c r="F19" s="22"/>
       <c r="G19" s="22" t="s">
         <v>157</v>
       </c>
@@ -2711,70 +2724,72 @@
         <v>147</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="31" customFormat="1">
       <c r="A20" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="G20" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="31" customFormat="1">
       <c r="A21" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>148</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="31" customFormat="1">
       <c r="A22" s="21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="22"/>
+        <v>195</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="G22" s="22" t="s">
         <v>157</v>
       </c>
@@ -2782,7 +2797,7 @@
         <v>148</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="31" customFormat="1">
@@ -2790,17 +2805,15 @@
         <v>9</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>148</v>
-      </c>
+      <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
         <v>157</v>
       </c>
@@ -2808,70 +2821,72 @@
         <v>148</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="31" customFormat="1">
       <c r="A24" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="G24" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="31" customFormat="1">
       <c r="A25" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>149</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="22"/>
       <c r="G25" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="31" customFormat="1">
       <c r="A26" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="22"/>
+        <v>197</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G26" s="22" t="s">
         <v>157</v>
       </c>
@@ -2879,7 +2894,7 @@
         <v>149</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="31" customFormat="1">
@@ -2887,17 +2902,15 @@
         <v>12</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>149</v>
-      </c>
+      <c r="F27" s="22"/>
       <c r="G27" s="22" t="s">
         <v>157</v>
       </c>
@@ -2905,107 +2918,109 @@
         <v>149</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="31" customFormat="1">
       <c r="A28" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G28" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I28" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="31" customFormat="1">
+      <c r="A29" s="21">
+        <v>13</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J29" s="31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="33" customFormat="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="1:10" s="31" customFormat="1">
-      <c r="A30" s="21">
-        <v>1</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>175</v>
-      </c>
+    <row r="30" spans="1:10" s="33" customFormat="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:10" s="31" customFormat="1">
       <c r="A31" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="31" customFormat="1" ht="28.5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="31" customFormat="1">
       <c r="A32" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="22"/>
+        <v>199</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="G32" s="22" t="s">
         <v>157</v>
       </c>
@@ -3013,57 +3028,81 @@
         <v>179</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="31" customFormat="1" ht="28.5">
       <c r="A33" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>179</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F33" s="22"/>
       <c r="G33" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="31" customFormat="1" ht="28.5">
       <c r="A34" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" s="22"/>
+        <v>182</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>178</v>
+      </c>
       <c r="G34" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I34" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="31" customFormat="1" ht="28.5">
+      <c r="A35" s="21">
+        <v>5</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="31" t="s">
-        <v>178</v>
+      <c r="J35" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3093,12 +3132,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3113,7 +3152,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -3123,17 +3162,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="215">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,6 +842,18 @@
   </si>
   <si>
     <t>/fupan/api/stock/base/zhongwenming/{zhongwenming}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usercenter/account/{accontId}/assets/premonth/eom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accontId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取账户上月月末资产信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2273,11 +2285,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3103,6 +3115,30 @@
       </c>
       <c r="J35" s="31" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="31" customFormat="1" ht="28.5">
+      <c r="A36" s="21">
+        <v>6</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据记录" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="214">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,10 +668,6 @@
   </si>
   <si>
     <t>首页面查询框输入拼音和板块时，自动下拉联想。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除时变更状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -861,7 +857,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,14 +914,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1011,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1071,7 +1059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2287,7 +2274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
@@ -2308,33 +2295,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="28" customFormat="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="28" customFormat="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="20" t="s">
         <v>120</v>
       </c>
@@ -2350,8 +2337,8 @@
       <c r="H2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" s="29" customFormat="1">
       <c r="A3" s="27"/>
@@ -2375,7 +2362,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>124</v>
@@ -2401,7 +2388,7 @@
         <v>126</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>124</v>
@@ -2427,10 +2414,10 @@
         <v>126</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2442,7 +2429,7 @@
         <v>132</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="30" customFormat="1">
@@ -2453,7 +2440,7 @@
         <v>126</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="31" t="s">
@@ -2468,7 +2455,7 @@
         <v>130</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1">
@@ -2479,7 +2466,7 @@
         <v>126</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>161</v>
@@ -2492,7 +2479,7 @@
         <v>130</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="31" customFormat="1">
@@ -2503,7 +2490,7 @@
         <v>126</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>128</v>
@@ -2526,16 +2513,16 @@
         <v>126</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>129</v>
@@ -2549,10 +2536,10 @@
         <v>126</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>157</v>
@@ -2561,7 +2548,7 @@
         <v>130</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="31" customFormat="1">
@@ -2572,19 +2559,19 @@
         <v>126</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="33" customFormat="1">
@@ -2603,7 +2590,7 @@
         <v>126</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -2627,7 +2614,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>132</v>
@@ -2650,7 +2637,7 @@
         <v>145</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>124</v>
@@ -2676,7 +2663,7 @@
         <v>146</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>124</v>
@@ -2700,7 +2687,7 @@
         <v>122</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>147</v>
@@ -2723,7 +2710,7 @@
         <v>126</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>6</v>
@@ -2747,7 +2734,7 @@
         <v>145</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>6</v>
@@ -2773,7 +2760,7 @@
         <v>146</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>6</v>
@@ -2797,7 +2784,7 @@
         <v>122</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>148</v>
@@ -2820,7 +2807,7 @@
         <v>126</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
@@ -2844,7 +2831,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>6</v>
@@ -2870,7 +2857,7 @@
         <v>146</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>6</v>
@@ -2894,7 +2881,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>149</v>
@@ -2917,7 +2904,7 @@
         <v>126</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>6</v>
@@ -2941,7 +2928,7 @@
         <v>145</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>6</v>
@@ -2967,7 +2954,7 @@
         <v>146</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>6</v>
@@ -2987,7 +2974,7 @@
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I30" s="26"/>
     </row>
@@ -2999,22 +2986,22 @@
         <v>122</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="31" customFormat="1">
@@ -3025,22 +3012,22 @@
         <v>126</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -3051,20 +3038,20 @@
         <v>126</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -3075,22 +3062,22 @@
         <v>145</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -3101,10 +3088,10 @@
         <v>146</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22" t="s">
@@ -3114,7 +3101,7 @@
         <v>123</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -3125,20 +3112,20 @@
         <v>126</v>
       </c>
       <c r="C36" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>212</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>213</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3158,57 +3145,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="36" t="s">
-        <v>162</v>
+      <c r="A5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>170</v>
+      <c r="A7" s="36" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="36" t="s">
-        <v>205</v>
+      <c r="A9" s="35" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据记录" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="218">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,6 +850,22 @@
   </si>
   <si>
     <t>获取账户上月月末资产信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fupan/api/stock/base/autocomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoComplete组件数据查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList&lt;AutoCompleteDTO&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2272,11 +2288,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2289,7 +2305,7 @@
     <col min="6" max="6" width="25.5" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="24" customWidth="1"/>
     <col min="8" max="8" width="5.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="24" customWidth="1"/>
     <col min="10" max="10" width="17.25" style="24" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="24"/>
   </cols>
@@ -2574,73 +2590,67 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="33" customFormat="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="32" t="s">
+    <row r="13" spans="1:10" s="31" customFormat="1">
+      <c r="A13" s="21">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="33" customFormat="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" s="30" customFormat="1">
-      <c r="A14" s="21">
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" s="30" customFormat="1">
+      <c r="A15" s="21">
         <v>1</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B15" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="31" customFormat="1">
-      <c r="A15" s="21">
-        <v>2</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>122</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>132</v>
-      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="22" t="s">
         <v>157</v>
       </c>
+      <c r="H15" s="23"/>
       <c r="I15" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>133</v>
+        <v>150</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="31" customFormat="1">
       <c r="A16" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>132</v>
@@ -2652,15 +2662,15 @@
         <v>132</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="31" customFormat="1">
       <c r="A17" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>191</v>
@@ -2668,54 +2678,56 @@
       <c r="D17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="G17" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="31" customFormat="1">
       <c r="A18" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>147</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="22"/>
       <c r="G18" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="31" customFormat="1">
       <c r="A19" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="22"/>
+        <v>192</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="G19" s="22" t="s">
         <v>157</v>
       </c>
@@ -2723,7 +2735,7 @@
         <v>147</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="31" customFormat="1">
@@ -2731,7 +2743,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>193</v>
@@ -2739,9 +2751,7 @@
       <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>147</v>
-      </c>
+      <c r="F20" s="22"/>
       <c r="G20" s="22" t="s">
         <v>157</v>
       </c>
@@ -2749,15 +2759,15 @@
         <v>147</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="31" customFormat="1">
       <c r="A21" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>193</v>
@@ -2765,54 +2775,56 @@
       <c r="D21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="G21" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="31" customFormat="1">
       <c r="A22" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>148</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="22"/>
       <c r="G22" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="31" customFormat="1">
       <c r="A23" s="21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="22"/>
+        <v>194</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="G23" s="22" t="s">
         <v>157</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>148</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="31" customFormat="1">
@@ -2828,7 +2840,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>195</v>
@@ -2836,9 +2848,7 @@
       <c r="D24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>148</v>
-      </c>
+      <c r="F24" s="22"/>
       <c r="G24" s="22" t="s">
         <v>157</v>
       </c>
@@ -2846,15 +2856,15 @@
         <v>148</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="31" customFormat="1">
       <c r="A25" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>195</v>
@@ -2862,54 +2872,56 @@
       <c r="D25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="G25" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="31" customFormat="1">
       <c r="A26" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>149</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="22"/>
       <c r="G26" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="31" customFormat="1">
       <c r="A27" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>196</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G27" s="22" t="s">
         <v>157</v>
       </c>
@@ -2917,7 +2929,7 @@
         <v>149</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="31" customFormat="1">
@@ -2925,7 +2937,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>197</v>
@@ -2933,9 +2945,7 @@
       <c r="D28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>149</v>
-      </c>
+      <c r="F28" s="22"/>
       <c r="G28" s="22" t="s">
         <v>157</v>
       </c>
@@ -2943,15 +2953,15 @@
         <v>149</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="31" customFormat="1">
       <c r="A29" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>197</v>
@@ -2959,57 +2969,57 @@
       <c r="D29" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G29" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I29" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="31" customFormat="1">
+      <c r="A30" s="21">
+        <v>13</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J30" s="31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="33" customFormat="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="32" t="s">
+    <row r="31" spans="1:10" s="33" customFormat="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" s="31" customFormat="1">
-      <c r="A31" s="21">
-        <v>1</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>173</v>
-      </c>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:10" s="31" customFormat="1">
       <c r="A32" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>198</v>
@@ -3018,37 +3028,39 @@
         <v>180</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="31" customFormat="1" ht="28.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="31" customFormat="1">
       <c r="A33" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>126</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="22"/>
+        <v>198</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>179</v>
+      </c>
       <c r="G33" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>174</v>
@@ -3056,10 +3068,10 @@
     </row>
     <row r="34" spans="1:10" s="31" customFormat="1" ht="28.5">
       <c r="A34" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>199</v>
@@ -3067,9 +3079,7 @@
       <c r="D34" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>177</v>
-      </c>
+      <c r="F34" s="22"/>
       <c r="G34" s="22" t="s">
         <v>157</v>
       </c>
@@ -3077,15 +3087,15 @@
         <v>177</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="31" customFormat="1" ht="28.5">
       <c r="A35" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>199</v>
@@ -3093,38 +3103,64 @@
       <c r="D35" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="G35" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="31" customFormat="1" ht="28.5">
       <c r="A36" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I36" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="31" customFormat="1" ht="28.5">
+      <c r="A37" s="21">
+        <v>6</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J37" s="31" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3147,7 +3183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据记录" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="217">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,6 @@
   </si>
   <si>
     <t>keyword 必填 多个关键字用空格分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页面查询框输入拼音和板块时，自动下拉联想。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2290,7 +2286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13:G14"/>
     </sheetView>
@@ -2378,7 +2374,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>124</v>
@@ -2404,7 +2400,7 @@
         <v>126</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>124</v>
@@ -2430,10 +2426,10 @@
         <v>126</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2445,7 +2441,7 @@
         <v>132</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="30" customFormat="1">
@@ -2456,7 +2452,7 @@
         <v>126</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="31" t="s">
@@ -2471,7 +2467,7 @@
         <v>130</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1">
@@ -2482,7 +2478,7 @@
         <v>126</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>161</v>
@@ -2495,7 +2491,7 @@
         <v>130</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="31" customFormat="1">
@@ -2506,7 +2502,7 @@
         <v>126</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>128</v>
@@ -2529,16 +2525,16 @@
         <v>126</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>129</v>
@@ -2552,10 +2548,10 @@
         <v>126</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>157</v>
@@ -2564,7 +2560,7 @@
         <v>130</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="31" customFormat="1">
@@ -2575,19 +2571,19 @@
         <v>126</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="31" customFormat="1">
@@ -2595,19 +2591,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>214</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>215</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="33" customFormat="1">
@@ -2626,7 +2622,7 @@
         <v>126</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -2650,7 +2646,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>132</v>
@@ -2673,7 +2669,7 @@
         <v>145</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>124</v>
@@ -2699,7 +2695,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>124</v>
@@ -2723,7 +2719,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>147</v>
@@ -2746,7 +2742,7 @@
         <v>126</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>6</v>
@@ -2770,7 +2766,7 @@
         <v>145</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>6</v>
@@ -2796,7 +2792,7 @@
         <v>146</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>6</v>
@@ -2820,7 +2816,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>148</v>
@@ -2843,7 +2839,7 @@
         <v>126</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>6</v>
@@ -2867,7 +2863,7 @@
         <v>145</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>6</v>
@@ -2893,7 +2889,7 @@
         <v>146</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
@@ -2917,7 +2913,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>149</v>
@@ -2940,7 +2936,7 @@
         <v>126</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>6</v>
@@ -2964,7 +2960,7 @@
         <v>145</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>6</v>
@@ -2990,7 +2986,7 @@
         <v>146</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>6</v>
@@ -3010,7 +3006,7 @@
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I31" s="26"/>
     </row>
@@ -3022,22 +3018,22 @@
         <v>122</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="31" customFormat="1">
@@ -3048,22 +3044,22 @@
         <v>126</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -3074,20 +3070,20 @@
         <v>126</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -3098,22 +3094,22 @@
         <v>145</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -3124,10 +3120,10 @@
         <v>146</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22" t="s">
@@ -3137,7 +3133,7 @@
         <v>123</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="31" customFormat="1" ht="28.5">
@@ -3148,20 +3144,20 @@
         <v>126</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>212</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3181,52 +3177,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
-        <v>162</v>
+      <c r="A4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>169</v>
+      <c r="A6" s="36" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
-        <v>204</v>
+      <c r="A8" s="35" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据记录" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="220">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,123 +745,136 @@
     <t>/fupan/api/stock/{daima}</t>
   </si>
   <si>
+    <t>/fupan/api/stock/keyword</t>
+  </si>
+  <si>
+    <t>/fupan/api/stock/fupai/{day}</t>
+  </si>
+  <si>
+    <t>/fupan/api/stock/tixing/{daybefore}/{dayafter}</t>
+  </si>
+  <si>
+    <t>/fupan/api/stock/fupan/{date}</t>
+  </si>
+  <si>
+    <t>/fupan/api/stock/fupan/datelist/{top}</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/base</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/base/{daima}</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/ext</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/ext/{id}</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/tingfupai</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/tingfupai/{id}</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/tixing</t>
+  </si>
+  <si>
+    <t>/fupan/shl/stock/tixing/{id}</t>
+  </si>
+  <si>
+    <t>usercenter/account/{accontId}/assets</t>
+  </si>
+  <si>
+    <t>usercenter/account/{accontId}/assets/{id}</t>
+  </si>
+  <si>
+    <t>添加 个人 及 好友 曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 三大股指 指数维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按所属板块查询[多个板块"与"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按描述关键字查询[多个关键字"与"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产表中添加当日收益率、月度收益率、年度收益率等，并考虑如何支持好友间的收益率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘与查询 》 资产记录 》 资产曲线 》 多用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daybefore/dayafter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongwenming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fupan/api/stock/base/{daima}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按名称查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fupan/api/stock/base/zhongwenming/{zhongwenming}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usercenter/account/{accontId}/assets/premonth/eom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accontId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取账户上月月末资产信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fupan/api/stock/base/autocomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoComplete组件数据查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList&lt;AutoCompleteDTO&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/fupan/api/stock/bankuai</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/keyword</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/fupai/{day}</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/tixing/{daybefore}/{dayafter}</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/fupan/{date}</t>
-  </si>
-  <si>
-    <t>/fupan/api/stock/fupan/datelist/{top}</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/base</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/base/{daima}</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/ext</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/ext/{id}</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/tingfupai</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/tingfupai/{id}</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/tixing</t>
-  </si>
-  <si>
-    <t>/fupan/shl/stock/tixing/{id}</t>
-  </si>
-  <si>
-    <t>usercenter/account/{accontId}/assets</t>
-  </si>
-  <si>
-    <t>usercenter/account/{accontId}/assets/{id}</t>
-  </si>
-  <si>
-    <t>添加 个人 及 好友 曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加 三大股指 指数维护功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按所属板块查询[多个板块"与"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按描述关键字查询[多个关键字"与"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产表中添加当日收益率、月度收益率、年度收益率等，并考虑如何支持好友间的收益率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复盘与查询 》 资产记录 》 资产曲线 》 多用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daybefore/dayafter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhongwenming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/fupan/api/stock/base/{daima}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按名称查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/fupan/api/stock/base/zhongwenming/{zhongwenming}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usercenter/account/{accontId}/assets/premonth/eom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accontId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取账户上月月末资产信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/fupan/api/stock/base/autocomplete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoComplete组件数据查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkedList&lt;AutoCompleteDTO&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fupan/api/stock/quyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quyu 必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按所在区域查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2284,11 +2297,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13:G14"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2400,7 +2413,7 @@
         <v>126</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>124</v>
@@ -2426,10 +2439,10 @@
         <v>126</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2441,7 +2454,7 @@
         <v>132</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="30" customFormat="1">
@@ -2452,11 +2465,11 @@
         <v>126</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="31" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
@@ -2467,31 +2480,33 @@
         <v>130</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="31" customFormat="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="30" customFormat="1">
       <c r="A8" s="21">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>184</v>
-      </c>
+      <c r="C8" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="22"/>
       <c r="E8" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="30"/>
+        <v>154</v>
+      </c>
+      <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
         <v>157</v>
       </c>
+      <c r="H8" s="23"/>
       <c r="I8" s="22" t="s">
         <v>130</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="31" customFormat="1">
@@ -2502,11 +2517,12 @@
         <v>126</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>128</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="30"/>
       <c r="G9" s="22" t="s">
         <v>157</v>
       </c>
@@ -2514,7 +2530,7 @@
         <v>130</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="31" customFormat="1">
@@ -2525,19 +2541,19 @@
         <v>126</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="31" customFormat="1">
@@ -2548,19 +2564,19 @@
         <v>126</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="31" customFormat="1">
@@ -2571,19 +2587,19 @@
         <v>126</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="31" customFormat="1">
@@ -2591,88 +2607,85 @@
         <v>10</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>214</v>
+        <v>187</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="J13" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="31" customFormat="1">
+      <c r="A14" s="21">
+        <v>11</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="33" customFormat="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="32" t="s">
+      <c r="J14" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="33" customFormat="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" s="30" customFormat="1">
-      <c r="A15" s="21">
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" s="30" customFormat="1">
+      <c r="A16" s="21">
         <v>1</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B16" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="31" customFormat="1">
-      <c r="A16" s="21">
-        <v>2</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>122</v>
-      </c>
       <c r="C16" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>132</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="22" t="s">
         <v>157</v>
       </c>
+      <c r="H16" s="23"/>
       <c r="I16" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>133</v>
+        <v>150</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="31" customFormat="1">
       <c r="A17" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>132</v>
@@ -2684,70 +2697,72 @@
         <v>132</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="31" customFormat="1">
       <c r="A18" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="G18" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="31" customFormat="1">
       <c r="A19" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>147</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="22"/>
       <c r="G19" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="31" customFormat="1">
       <c r="A20" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="22"/>
+        <v>190</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="G20" s="22" t="s">
         <v>157</v>
       </c>
@@ -2755,7 +2770,7 @@
         <v>147</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="31" customFormat="1">
@@ -2763,17 +2778,15 @@
         <v>6</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>147</v>
-      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="22" t="s">
         <v>157</v>
       </c>
@@ -2781,70 +2794,72 @@
         <v>147</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="31" customFormat="1">
       <c r="A22" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="G22" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="31" customFormat="1">
       <c r="A23" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>148</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="31" customFormat="1">
       <c r="A24" s="21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="22"/>
+        <v>192</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="G24" s="22" t="s">
         <v>157</v>
       </c>
@@ -2852,7 +2867,7 @@
         <v>148</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="31" customFormat="1">
@@ -2860,17 +2875,15 @@
         <v>9</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>148</v>
-      </c>
+      <c r="F25" s="22"/>
       <c r="G25" s="22" t="s">
         <v>157</v>
       </c>
@@ -2878,70 +2891,72 @@
         <v>148</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="31" customFormat="1">
       <c r="A26" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="G26" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="31" customFormat="1">
       <c r="A27" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>149</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="22"/>
       <c r="G27" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="31" customFormat="1">
       <c r="A28" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="22"/>
+        <v>194</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G28" s="22" t="s">
         <v>157</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>149</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="31" customFormat="1">
@@ -2957,17 +2972,15 @@
         <v>12</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>149</v>
-      </c>
+      <c r="F29" s="22"/>
       <c r="G29" s="22" t="s">
         <v>157</v>
       </c>
@@ -2975,112 +2988,114 @@
         <v>149</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="31" customFormat="1">
       <c r="A30" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G30" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I30" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="31" customFormat="1">
+      <c r="A31" s="21">
+        <v>13</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J31" s="31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="33" customFormat="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="32" t="s">
+    <row r="32" spans="1:10" s="33" customFormat="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" s="31" customFormat="1">
-      <c r="A32" s="21">
-        <v>1</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>172</v>
-      </c>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:10" s="31" customFormat="1">
       <c r="A33" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>179</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="31" customFormat="1" ht="28.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="31" customFormat="1">
       <c r="A34" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>126</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="22"/>
+        <v>196</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>178</v>
+      </c>
       <c r="G34" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>173</v>
@@ -3088,20 +3103,18 @@
     </row>
     <row r="35" spans="1:10" s="31" customFormat="1" ht="28.5">
       <c r="A35" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>176</v>
-      </c>
+      <c r="F35" s="22"/>
       <c r="G35" s="22" t="s">
         <v>157</v>
       </c>
@@ -3109,55 +3122,81 @@
         <v>176</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="31" customFormat="1" ht="28.5">
       <c r="A36" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="G36" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="31" customFormat="1" ht="28.5">
       <c r="A37" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I37" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="31" customFormat="1" ht="28.5">
+      <c r="A38" s="21">
+        <v>6</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="J37" s="31" t="s">
-        <v>212</v>
+      <c r="J38" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3187,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3207,17 +3246,17 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="223">
   <si>
     <t>停牌日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,6 +875,18 @@
   </si>
   <si>
     <t>按所在区域查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最新收益率（非加权算法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LatestRateOfReturnDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usercenter/account/{accountId}/assets/rateofreturn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2297,11 +2309,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3197,6 +3209,30 @@
       </c>
       <c r="J38" s="31" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="31" customFormat="1" ht="28.5">
+      <c r="A39" s="21">
+        <v>7</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/docs/平熙.xlsx
+++ b/docs/平熙.xlsx
@@ -878,15 +878,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取最新收益率（非加权算法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LatestRateOfReturnDto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>usercenter/account/{accountId}/assets/rateofreturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RateOfReturnDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2313,7 +2313,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3219,7 +3219,7 @@
         <v>126</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>179</v>
@@ -3232,7 +3232,7 @@
         <v>221</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
